--- a/app/Recursos Marcas/Halsa/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Halsa/Plantilla modificada.xlsx
@@ -220,7 +220,7 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+4+Rosa.png']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Metálico/Sandalia+plana+Rosado+Met\xa0lico+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Metálico/Sandalia+plana+Rosado+Met\xa0lico+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Metálico/Sandalia+plana+Rosado+Met\xa0lico+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Metálico/Sandalia+plana+Rosado+Met\xa0lico+4+Rosa.png']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+4+Rosa.png']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+4+Rosa.png']</t>

--- a/app/Recursos Marcas/Halsa/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Halsa/Plantilla modificada.xlsx
@@ -220,7 +220,7 @@
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plataforma+Oro+Rosa/Sandalia+plataforma+Oro+Rosa+4+Rosa.png']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Met%C2%A0lico/Sandalia+plana+Rosado+Met\xa0lico+4+Rosa.png']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Meta%CC%81lico/Sandalia+plana+Rosado+Met\xa0lico+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Meta%CC%81lico/Sandalia+plana+Rosado+Met\xa0lico+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Meta%CC%81lico/Sandalia+plana+Rosado+Met\xa0lico+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+plana+Rosado+Meta%CC%81lico/Sandalia+plana+Rosado+Met\xa0lico+4+Rosa.png']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+1+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+2+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+3+Rosa.png', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Halsa/Sandalia+Fucsia+Gamo/Sandalia+Fucsia+Gamo+4+Rosa.png']</t>
